--- a/modelos/OBAFAR4425031/OBAFAR4425031_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4425031/OBAFAR4425031_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45027</v>
       </c>
       <c r="B2" t="n">
-        <v>145.6802134403254</v>
+        <v>145.4682919108909</v>
       </c>
       <c r="C2" t="n">
-        <v>108.8692940113845</v>
+        <v>106.7847385598295</v>
       </c>
       <c r="D2" t="n">
-        <v>181.4155169766069</v>
+        <v>182.8070135495467</v>
       </c>
       <c r="E2" t="n">
         <v>117</v>
@@ -496,13 +496,13 @@
         <v>45033</v>
       </c>
       <c r="B3" t="n">
-        <v>133.076210775713</v>
+        <v>132.8908595303649</v>
       </c>
       <c r="C3" t="n">
-        <v>98.18028443910265</v>
+        <v>94.3141697574947</v>
       </c>
       <c r="D3" t="n">
-        <v>172.7864957216562</v>
+        <v>172.8555666992953</v>
       </c>
       <c r="E3" t="n">
         <v>102</v>
@@ -516,13 +516,13 @@
         <v>45040</v>
       </c>
       <c r="B4" t="n">
-        <v>124.3786273439169</v>
+        <v>124.4197712377526</v>
       </c>
       <c r="C4" t="n">
-        <v>85.99193704238446</v>
+        <v>87.32130605467358</v>
       </c>
       <c r="D4" t="n">
-        <v>160.3950563613572</v>
+        <v>159.634720628872</v>
       </c>
       <c r="E4" t="n">
         <v>78</v>
@@ -536,13 +536,13 @@
         <v>45047</v>
       </c>
       <c r="B5" t="n">
-        <v>115.3411763024733</v>
+        <v>115.326840658475</v>
       </c>
       <c r="C5" t="n">
-        <v>77.93822004807015</v>
+        <v>77.58696624418312</v>
       </c>
       <c r="D5" t="n">
-        <v>152.8471457819406</v>
+        <v>155.368013379756</v>
       </c>
       <c r="E5" t="n">
         <v>156</v>
@@ -617,22 +617,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>822.5546429826244</v>
+        <v>810.4436443236953</v>
       </c>
       <c r="C2" t="n">
-        <v>28.68021344032545</v>
+        <v>28.46829191089088</v>
       </c>
       <c r="D2" t="n">
-        <v>28.68021344032545</v>
+        <v>28.46829191089088</v>
       </c>
       <c r="E2" t="n">
-        <v>0.245130029404491</v>
+        <v>0.2433187342811187</v>
       </c>
       <c r="F2" t="n">
-        <v>0.245130029404491</v>
+        <v>0.2433187342811187</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2183659976874573</v>
+        <v>0.2169274749618593</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -643,22 +643,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1589.949298316338</v>
+        <v>1587.782085037034</v>
       </c>
       <c r="C3" t="n">
-        <v>39.87416830877276</v>
+        <v>39.84698338691442</v>
       </c>
       <c r="D3" t="n">
-        <v>39.37122060571885</v>
+        <v>39.32793003654751</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3866333349320846</v>
+        <v>0.386234072232152</v>
       </c>
       <c r="F3" t="n">
-        <v>0.304668733095225</v>
+        <v>0.3028515640231856</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3408052344095487</v>
+        <v>0.3404936692575825</v>
       </c>
       <c r="H3" t="n">
         <v>0.3333333333333334</v>

--- a/modelos/OBAFAR4425031/OBAFAR4425031_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4425031/OBAFAR4425031_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,82 +473,62 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>145.4682919108909</v>
+        <v>124.4197712377529</v>
       </c>
       <c r="C2" t="n">
-        <v>106.7847385598295</v>
+        <v>86.12759612005844</v>
       </c>
       <c r="D2" t="n">
-        <v>182.8070135495467</v>
+        <v>156.8968057372818</v>
       </c>
       <c r="E2" t="n">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45026</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45033</v>
+        <v>45047</v>
       </c>
       <c r="B3" t="n">
-        <v>132.8908595303649</v>
+        <v>115.3268174637392</v>
       </c>
       <c r="C3" t="n">
-        <v>94.3141697574947</v>
+        <v>76.87287412417639</v>
       </c>
       <c r="D3" t="n">
-        <v>172.8555666992953</v>
+        <v>153.4862486586457</v>
       </c>
       <c r="E3" t="n">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45026</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45040</v>
+        <v>45061</v>
       </c>
       <c r="B4" t="n">
-        <v>124.4197712377526</v>
+        <v>119.036438540871</v>
       </c>
       <c r="C4" t="n">
-        <v>87.32130605467358</v>
+        <v>82.31258141697094</v>
       </c>
       <c r="D4" t="n">
-        <v>159.634720628872</v>
+        <v>157.210104833425</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B5" t="n">
-        <v>115.326840658475</v>
-      </c>
-      <c r="C5" t="n">
-        <v>77.58696624418312</v>
-      </c>
-      <c r="D5" t="n">
-        <v>155.368013379756</v>
-      </c>
-      <c r="E5" t="n">
-        <v>156</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45040</v>
+        <v>45054</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,54 +594,28 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>810.4436443236953</v>
+        <v>3096.832390403154</v>
       </c>
       <c r="C2" t="n">
-        <v>28.46829191089088</v>
+        <v>55.64919038407616</v>
       </c>
       <c r="D2" t="n">
-        <v>28.46829191089088</v>
+        <v>53.70979743829487</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2433187342811187</v>
+        <v>0.8337016637182035</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2433187342811187</v>
+        <v>0.5951252722788835</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2169274749618593</v>
+        <v>0.5537136500626023</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1587.782085037034</v>
-      </c>
-      <c r="C3" t="n">
-        <v>39.84698338691442</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.32793003654751</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.386234072232152</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.3028515640231856</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.3404936692575825</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.3333333333333334</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAFAR4425031/OBAFAR4425031_Sell Out_metricas.xlsx
+++ b/modelos/OBAFAR4425031/OBAFAR4425031_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,62 +473,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B2" t="n">
-        <v>124.4197712377529</v>
+        <v>145.4682919496486</v>
       </c>
       <c r="C2" t="n">
-        <v>86.12759612005844</v>
+        <v>107.5891001373043</v>
       </c>
       <c r="D2" t="n">
-        <v>156.8968057372818</v>
+        <v>180.6874854444281</v>
       </c>
       <c r="E2" t="n">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45047</v>
+        <v>45033</v>
       </c>
       <c r="B3" t="n">
-        <v>115.3268174637392</v>
+        <v>132.890859570514</v>
       </c>
       <c r="C3" t="n">
-        <v>76.87287412417639</v>
+        <v>93.27794316146074</v>
       </c>
       <c r="D3" t="n">
-        <v>153.4862486586457</v>
+        <v>170.3390979005956</v>
       </c>
       <c r="E3" t="n">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45040</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45061</v>
+        <v>45040</v>
       </c>
       <c r="B4" t="n">
-        <v>119.036438540871</v>
+        <v>124.4197712377529</v>
       </c>
       <c r="C4" t="n">
-        <v>82.31258141697094</v>
+        <v>87.40798296717007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.210104833425</v>
+        <v>163.0203827568201</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45054</v>
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B5" t="n">
+        <v>115.3268174637392</v>
+      </c>
+      <c r="C5" t="n">
+        <v>77.03076468329519</v>
+      </c>
+      <c r="D5" t="n">
+        <v>154.8594844952904</v>
+      </c>
+      <c r="E5" t="n">
+        <v>156</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45040</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,28 +614,54 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>810.4436465304258</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28.46829194964857</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.46829194964857</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.243318734612381</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.243318734612381</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2169274752251588</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
-        <v>3096.832390403154</v>
-      </c>
-      <c r="C2" t="n">
-        <v>55.64919038407616</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.70979743829487</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8337016637182035</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.5951252722788835</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.5537136500626023</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
+      <c r="B3" t="n">
+        <v>1587.782714799504</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39.84699128917395</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.32793778150921</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3862341219247606</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3028515644168034</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3404937348906402</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3333333333333334</v>
       </c>
     </row>
   </sheetData>
